--- a/score.xlsx
+++ b/score.xlsx
@@ -1,37 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="score" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="roc" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="prc" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,21 +55,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,13 +394,3541 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="A1:D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.9886363636363636</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.9354838709677419</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.9613259668508287</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.981651376146789</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9469026548672567</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.963963963963964</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.923076923076923</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9587628865979382</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9789473684210527</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9438202247191011</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9333333333333335</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.941747572815534</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9150943396226415</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9282296650717704</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9532710280373832</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9357798165137615</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9444444444444445</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8828828828828829</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9423076923076923</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9116279069767441</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8932038834951457</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.934010152284264</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.912621359223301</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9591836734693877</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9353233830845772</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.927710843373494</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8020833333333334</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8603351955307261</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8508771929824561</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9065420560747663</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9868421052631579</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6696428571428571</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7978723404255319</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9175257731958762</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9035532994923858</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9514563106796117</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8596491228070177</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8526315789473684</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8756756756756757</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7788461538461539</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8481675392670157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.944954128440367</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9363636363636364</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9406392694063928</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7111111111111111</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9795918367346939</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8240343347639486</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8854166666666667</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9134615384615384</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9595959595959596</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9359605911330049</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9313725490196079</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9223300970873787</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9268292682926829</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9680851063829787</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9578947368421052</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9183673469387755</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9137055837563451</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9036144578313253</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8928571428571428</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9568965517241379</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9568965517241379</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9568965517241379</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9207920792079208</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9300000000000002</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9495798319327731</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9912280701754386</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9699570815450643</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9777777777777777</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.946236559139785</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.978494623655914</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9528795811518325</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.7099236641221374</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8193832599118943</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8749999999999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9382716049382716</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.8172043010752689</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8735632183908048</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9239130434782609</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.8673469387755102</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.7661290322580645</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8482142857142857</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.975609756097561</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.8247422680412371</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8938547486033519</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.8648648648648649</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9014084507042254</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8016528925619835</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9326923076923077</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.8622222222222222</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8244274809160306</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8816326530612245</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9519230769230769</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9339622641509433</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.964824120603015</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9595959595959596</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.9693877551020408</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.964467005076142</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9117647058823529</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9207920792079208</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9245283018867925</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9514563106796116</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9263157894736842</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.9777777777777777</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9513513513513514</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9150943396226415</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.941747572815534</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9282296650717704</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9574468085106383</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.8910891089108911</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.8571428571428572</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.926829268292683</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.8085106382978723</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.8636363636363636</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.9864864864864865</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.8202247191011236</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.8957055214723927</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.8981481481481481</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.9150943396226415</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.9065420560747663</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.8245614035087719</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.9306930693069307</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.8744186046511628</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.8099173553719008</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.9607843137254902</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.8789237668161435</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.9859154929577465</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.8284023668639053</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9325842696629213</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.8137254901960784</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.869109947643979</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9629629629629629</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.8387096774193549</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.9863013698630136</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.8135593220338984</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.9270833333333334</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.912621359223301</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.9591836734693877</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.9353233830845772</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.9629629629629629</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.9719626168224299</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9574468085106383</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.9890109890109891</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.972972972972973</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.9117647058823529</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.9207920792079208</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.9693877551020408</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.9359605911330049</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.9494949494949495</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.9591836734693877</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.9543147208121828</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.9292929292929293</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.9292929292929293</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.9292929292929293</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.9391304347826087</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.972972972972973</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.9557522123893805</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.979381443298969</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.9405940594059405</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.9595959595959594</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.9302325581395349</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.8080808080808081</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.8050847457627118</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.9693877551020408</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.8796296296296297</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.8627450980392157</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.838095238095238</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.9382716049382716</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.8351648351648352</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.8837209302325583</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.8640776699029126</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.8944723618090452</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.9550561797752809</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.8673469387755102</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.9090909090909092</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.9252336448598131</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9124423963133641</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.819672131147541</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.8468468468468469</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.8663594470046083</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.9423076923076923</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.9074074074074074</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.9245283018867925</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.990909090909091</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.995433789954338</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.8857142857142857</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.9073170731707316</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.8921568627450981</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.9191919191919192</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.9514563106796117</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.9423076923076923</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.8910891089108911</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.9183673469387755</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.898989898989899</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.9468085106382979</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.9222797927461138</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.9107142857142857</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.9807692307692307</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.9142857142857143</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.9504950495049505</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.9320388349514563</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.9743589743589743</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.9156626506024097</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.967032967032967</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.946236559139785</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.9615384615384616</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.9345794392523364</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.9478672985781991</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.8737864077669902</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.8450704225352113</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.8484848484848485</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.8795811518324607</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.8847926267281105</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.9150943396226415</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.9150943396226415</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.9150943396226415</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.7209302325581395</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.8266666666666667</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.7768595041322314</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.9690721649484536</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.8623853211009175</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.8411214953271028</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.8910891089108911</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.9065420560747663</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.8738738738738738</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.8899082568807339</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.9148936170212766</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.8865979381443299</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.8173913043478261</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.912621359223301</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.8623853211009174</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.9898989898989899</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.9898989898989899</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.9898989898989899</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.9385474860335196</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.9906542056074766</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.9814814814814815</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.986046511627907</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.9387755102040817</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.968421052631579</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.9902912621359223</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.9532710280373832</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.9714285714285714</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.9908256880733946</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.9773755656108598</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.978494623655914</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.9891304347826088</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.963302752293578</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.9677419354838711</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.9896907216494846</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.9746192893401014</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.9611650485436893</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.9658536585365853</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.9603960396039604</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.9797979797979798</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.9700000000000001</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.968421052631579</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.9735449735449735</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.9827586206896551</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9743589743589743</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.9785407725321887</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.9888888888888889</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.956989247311828</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.9726775956284154</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.9454545454545454</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.9904761904761905</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.9674418604651163</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.972972972972973</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.9494949494949495</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.9894736842105263</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.9690721649484537</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.9619047619047619</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.9805825242718447</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.9711538461538461</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.9351851851851852</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.9711538461538461</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.9528301886792453</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.9711538461538461</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.9619047619047619</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.9665071770334929</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.9387755102040817</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.9313725490196079</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.9134615384615384</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.9223300970873786</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.9381443298969072</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.9175257731958762</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.9222797927461139</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.9560439560439561</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.9304812834224598</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.9540229885057471</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.9540229885057471</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.9540229885057472</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.944954128440367</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.944954128440367</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.944954128440367</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.9532710280373832</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.9532710280373832</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.9532710280373832</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.9529411764705882</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.7714285714285715</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.8526315789473684</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.9326923076923077</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.8981481481481481</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.9315068493150684</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.7816091954022989</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.9431818181818182</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.8469387755102041</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.8924731182795699</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.9615384615384616</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.7731958762886598</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.719626168224299</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.8369565217391304</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.9204545454545454</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.8617021276595744</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.8901098901098901</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.9493670886075949</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.7281553398058253</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.8241758241758242</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7983870967741935</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.9611650485436893</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.8722466960352422</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.9560439560439561</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.9015544041450777</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.9626168224299065</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.9903846153846154</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.976303317535545</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.978494623655914</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.9381443298969072</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.9578947368421052</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.9795918367346939</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.9795918367346939</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.9795918367346939</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.9895833333333334</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.9693877551020408</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.9793814432989691</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.9814814814814815</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.9724770642201834</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.9690721649484536</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.9842931937172774</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.963963963963964</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.981651376146789</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.9727272727272728</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.9801980198019802</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.9897959183673469</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.9897959183673469</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.9897959183673469</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.9489795918367347</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.9789473684210527</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.9637305699481866</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.9611650485436893</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.9753694581280788</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.9805825242718447</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.9805825242718447</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.9805825242718447</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.9019607843137255</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.9292929292929293</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.9519230769230769</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.9611650485436893</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.9893617021276596</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.9789473684210526</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.9313725490196079</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.9405940594059405</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.935960591133005</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.9541284403669725</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.9433962264150944</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.970873786407767</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.9569377990430622</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.9368421052631579</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.9673913043478261</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.9518716577540107</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.8961038961038961</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.6448598130841121</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.9777777777777777</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.9072164948453608</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.9876543209876543</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.7017543859649122</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.8205128205128205</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.5813953488372093</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.7352941176470588</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.8921568627450981</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.8272727272727273</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.8584905660377359</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.6203703703703703</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.7657142857142858</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.6987951807228916</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.8226950354609929</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.9512195121951219</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.8618784530386741</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.7840909090909091</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.8625</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.6436781609195402</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.7777777777777777</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0.9630690382876093</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.9619570745600652</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.9248424842484247</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.9704260651629073</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.9403785808280191</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0.9256322761942994</v>
+      </c>
+      <c r="G1" t="n">
+        <v>0.9404173807843532</v>
+      </c>
+      <c r="H1" t="n">
+        <v>0.9034455128205129</v>
+      </c>
+      <c r="I1" t="n">
+        <v>0.9374749096748294</v>
+      </c>
+      <c r="J1" t="n">
+        <v>0.9354741896758703</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.8721955128205128</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8291396103896105</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9053648283455109</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8365528976078471</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8834586466165413</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8637473298748856</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9348484848484848</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7986194477791116</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8911564625850341</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.9352435243524351</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9250825743168852</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9595352564102564</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9149414941494149</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9063938618925831</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9486863711001641</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9300930093009301</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9607303141574867</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9487179487179487</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9565370314541254</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.8016826923076923</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8852376645563259</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.899359743897559</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9026623961565408</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8549679487179488</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8940576230492198</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8413461538461539</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8399632802937577</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.9290865384615383</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9650860344137655</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9201680672268907</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9516258530710557</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9570707070707071</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9244820338304474</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9699519230769231</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9253425342534253</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.8645364536453645</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8759534323564835</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9056078550460573</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8990365315134483</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8643364336433643</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.863045218087235</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8522408963585435</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8762505002000801</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8556390977443609</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8409455128205129</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.9298878205128206</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9354741896758703</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9706119162640902</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9761568706522835</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.935674269707883</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9550820328131251</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.92999299929993</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9471606437898573</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9601960196019601</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.824765401876785</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8719487795118047</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8293317326930773</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8946466377659038</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8962339743589743</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9140656262505003</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.90347703748367</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8472222222222222</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.8529706945002007</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.9210950080515299</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.9060150375939848</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9205682272909164</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9403508771929824</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9202920292029203</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9262344439983943</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.938301282051282</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9297929792979298</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9228896103896104</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9590995879811075</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.9457843432820822</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.8338004203783406</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8846384638463847</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9096748293857888</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8516931864545083</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8534681213091784</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.8927318295739349</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8807571616560379</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8480632569312382</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.98999899989999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9473603906011596</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.985305958132045</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.97125916993267</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9734348220586754</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.989247311827957</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9643719806763285</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.975427885096587</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.9651186067460715</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.97009700970097</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.97468671679198</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9751312944084028</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9738217264596523</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9636591478696742</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9709273182957393</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9696727054348915</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.9491185897435899</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9651629072681704</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9202724358974359</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9350915824241818</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9250801282051283</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9367375743522534</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9593123792086258</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.9395100312531506</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9497537935885841</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.8646616541353382</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8882211538461539</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8686807038958396</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8989595838335334</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8720348313482135</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.8598130841121495</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.897832195905259</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8434591132018817</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.8517165448904014</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9060624249699879</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.9743589743589745</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9593634270843759</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9799919967987195</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9797919167667067</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9690016103059582</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9858490566037736</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9688476660953727</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9900990099009901</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9899959983993598</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9656641604010026</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9799819837854069</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9310897435897436</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9597839135654262</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9805299076676035</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9349434943494349</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9331081762274422</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9545090581523371</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9559178743961352</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.7794191538538839</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9126602564102563</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8450632394940839</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8525252525252525</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8101851851851851</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8493975903614458</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.874137413741374</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8786525974025974</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.8174143016987081</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0.971041388518024</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.9605387141594038</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.9420277989337394</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.9812436430883033</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.9630326886519548</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0.9366933538056591</v>
+      </c>
+      <c r="G1" t="n">
+        <v>0.947393063925322</v>
+      </c>
+      <c r="H1" t="n">
+        <v>0.9310838014981272</v>
+      </c>
+      <c r="I1" t="n">
+        <v>0.9653039291966544</v>
+      </c>
+      <c r="J1" t="n">
+        <v>0.9577637962401456</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.904957264957265</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9400581395348837</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8476246334310851</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9341019417475728</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8949914089347079</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9160064935064934</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9244800884955753</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9432051282051283</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.8909389140271493</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9097170686456401</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.9571122112211221</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9406011992425836</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9694920174165457</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9362783925451368</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.942482348569305</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9529761904761905</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9500930093009301</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9739434395635945</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9590209790209789</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9749857980575408</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.8905685618729097</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9059259259259259</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9177069425901202</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9230010893246189</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8946052631578947</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9232573638308375</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8938221153846154</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9272615225865626</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8906962025316456</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8803008088978767</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.9484510869565217</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9726980198019801</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9755406717142303</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9367857142857143</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9543617021276596</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9761580086580087</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9441933538056591</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9786538461538462</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9379111873451497</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.8961273627362737</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9104269267668692</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.934503432003432</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9200763182238668</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9082922245712943</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9148366055282873</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8890709074327406</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8988021695164552</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8782651481645289</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8713074146981628</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.9501923076923077</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9577637962401456</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9728538390379279</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9869343950147135</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9417857142857143</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9601909184726523</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9681882158804115</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9481930693069307</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9605270984798414</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9657727763067568</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.9055582137161085</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9264622190339551</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8718722271517302</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9265390100994526</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9316098334655036</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9318335983041864</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9239157706093188</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.8846587377480277</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.9303079710144929</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.9206578947368421</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9341051805337519</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9501017362995117</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9348665223665223</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9530777134317205</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9615530303030304</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9507296650717703</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.946891100702576</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9705455285947012</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.9520362903225807</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.8746849942726231</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.910951595159516</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9234036144578313</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9267553191489362</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9079927760577915</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9174446970627995</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9346658986175116</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8935514075148001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9139622641509434</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8913114008489993</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.99259900990099</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9707128810226155</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9863125292192613</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9872222222222222</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9713504600376899</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.98234015984016</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9908256880733946</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.971777353081701</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9855825242718447</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9924999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.9716279192089207</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.98009700970097</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9813252470799642</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9750946643717729</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9796452846219201</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9778654970760234</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9897727272727272</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9837399811409713</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9788551275094954</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.9647373188405798</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9708771929824562</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9515384615384616</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9351232993197279</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9541076527698458</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9475578790141896</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9619848270995061</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9746017699115044</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.949065934065934</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9587365591397849</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.884599542334096</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9196022727272727</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9155729565883911</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9210259103641457</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.902772958777654</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.8780487804878049</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9264454177897574</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8736789639601261</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.9073182311448724</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9207844972851527</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.9837903225806451</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9672538789583522</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9853921568627451</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9831749622926094</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9771497584541063</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9933490566037736</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9767860229657983</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9950990099009901</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9926960784313725</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9788865546218488</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.9848453608247423</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9843814432989691</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9565149136577709</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9713647959183674</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9885413642960813</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9515342197485055</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9476348651348652</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.968114718139943</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.972936507936508</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.8225177025963807</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9218560606060605</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.853828903654485</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8694501133786849</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8458646616541353</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9119718309859155</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9012149689545226</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9198883928571429</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.8896836128473297</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>